--- a/AQ_Budgets/0624_AQ_formatted.xlsx
+++ b/AQ_Budgets/0624_AQ_formatted.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -93,12 +93,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -108,6 +116,7 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -185,7 +194,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -200,13 +209,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -498,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -533,7 +542,7 @@
     <row r="3" ht="23.25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>June 19, 2024</t>
+          <t>July 18, 2024</t>
         </is>
       </c>
     </row>
@@ -586,22 +595,18 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>SUSHI BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="inlineStr"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -614,22 +619,18 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>SUSHI FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -642,7 +643,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>SUSHI CASE</t>
         </is>
@@ -652,17 +653,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,7 +672,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>UNDER COUNTER CHILLER</t>
         </is>
@@ -685,17 +682,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -705,25 +698,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +721,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>NORI WARMER</t>
         </is>
@@ -746,17 +731,13 @@
           <t>91202</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,7 +750,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>RECESSED CUTTING BOARD</t>
         </is>
@@ -779,17 +760,13 @@
           <t>POLY</t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -802,7 +779,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>NORI WARMER</t>
         </is>
@@ -812,17 +789,13 @@
           <t>91202</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,25 +805,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,25 +825,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -891,22 +848,18 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -919,7 +872,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>RECESSED CUTTING BOARD</t>
         </is>
@@ -929,17 +882,13 @@
           <t>POLY</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -952,7 +901,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
@@ -962,17 +911,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -985,7 +930,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>TRASH CHUTE</t>
         </is>
@@ -995,17 +940,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1015,25 +956,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1046,7 +979,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>NORI WARMER</t>
         </is>
@@ -1056,17 +989,13 @@
           <t>91202</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1079,7 +1008,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>RECESSED CUTTING BOARD</t>
         </is>
@@ -1089,17 +1018,13 @@
           <t>POLY</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1112,7 +1037,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>UNDER COUNTER CHILLER</t>
         </is>
@@ -1122,17 +1047,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1142,25 +1063,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="H24" s="8" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1170,25 +1083,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1201,9 +1106,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Rice / Grain Cooker</t>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>RICE / GRAIN COOKER</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1211,17 +1116,13 @@
           <t>57130</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="7" t="n">
         <v>556.5</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="7" t="n">
         <v>556.5</v>
       </c>
-      <c r="H26" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H26" s="8" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -1229,17 +1130,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="C27" s="6" t="n"/>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1252,7 +1150,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RICE WARMER STAND </t>
         </is>
@@ -1262,17 +1160,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>260</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>260</v>
       </c>
-      <c r="H28" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1285,22 +1179,18 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>SUSHI BACK BAR COUNTER</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1313,7 +1203,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>DROP-IN HAND SINK</t>
         </is>
@@ -1323,17 +1213,13 @@
           <t>7-PS-42</t>
         </is>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>1332.5</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="7" t="n">
         <v>1332.5</v>
       </c>
-      <c r="H30" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H30" s="8" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -1341,22 +1227,19 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C31" s="6" t="n"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>K-316-LU</t>
         </is>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="H31" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -1364,22 +1247,19 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C32" s="6" t="n"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>7-PS-10</t>
         </is>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="H32" s="8" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1389,25 +1269,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E33" s="7" t="inlineStr"/>
+      <c r="F33" s="7" t="inlineStr"/>
+      <c r="H33" s="8" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1420,7 +1292,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>TRASH CHUTE</t>
         </is>
@@ -1430,17 +1302,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1453,7 +1321,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
@@ -1463,17 +1331,13 @@
           <t>STAINLESS STEEL</t>
         </is>
       </c>
-      <c r="E35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1486,22 +1350,18 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1511,25 +1371,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E37" s="7" t="inlineStr"/>
+      <c r="F37" s="7" t="inlineStr"/>
+      <c r="H37" s="8" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1539,25 +1391,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E38" s="7" t="inlineStr"/>
+      <c r="F38" s="7" t="inlineStr"/>
+      <c r="H38" s="8" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1570,22 +1414,18 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>SUSHI BACK COUNTER</t>
         </is>
       </c>
-      <c r="E39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1595,25 +1435,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E40" s="7" t="inlineStr"/>
+      <c r="F40" s="7" t="inlineStr"/>
+      <c r="H40" s="8" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1623,25 +1455,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E41" s="7" t="inlineStr"/>
+      <c r="F41" s="7" t="inlineStr"/>
+      <c r="H41" s="8" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1651,25 +1475,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E42" s="7" t="inlineStr"/>
+      <c r="F42" s="7" t="inlineStr"/>
+      <c r="H42" s="8" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1679,91 +1495,83 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>SpareNo</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7" t="inlineStr">
-        <is>
-          <t>Column Missing</t>
-        </is>
-      </c>
+      <c r="E43" s="7" t="inlineStr"/>
+      <c r="F43" s="7" t="inlineStr"/>
+      <c r="H43" s="8" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="8" t="n"/>
-      <c r="C44" s="8" t="n"/>
-      <c r="D44" s="8" t="n"/>
-      <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n"/>
+      <c r="A44" s="9" t="n"/>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
     </row>
     <row r="45">
-      <c r="E45" s="9" t="inlineStr">
+      <c r="E45" s="10" t="inlineStr">
         <is>
           <t>Equipment SubTotal</t>
         </is>
       </c>
-      <c r="F45" s="6">
-        <f>SUM(F7:F44)</f>
+      <c r="F45" s="11">
+        <f>SUM(F6:F44)</f>
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="8" t="n"/>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="12" t="inlineStr">
         <is>
           <t>Delivery, Installation, Set-in Place</t>
         </is>
       </c>
-      <c r="F46" s="11">
-        <f>F45*.18</f>
+      <c r="F46" s="13">
+        <f>F45*0.18</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="E47" s="12" t="inlineStr">
+      <c r="E47" s="14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="15">
         <f>SUM(F45:F46)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="inlineStr">
+      <c r="A50" s="16" t="inlineStr">
         <is>
           <t>QUALIFICATIONS</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="inlineStr">
+      <c r="A51" s="17" t="inlineStr">
         <is>
           <t>1. Price does not include project contingency.</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
         <is>
           <t>2. Price does not include sales tax or use taxes.</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="inlineStr">
+      <c r="A53" s="17" t="inlineStr">
         <is>
           <t>3. Price is good through _____________</t>
         </is>
@@ -1774,6 +1582,6 @@
     <mergeCell ref="A50:C50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>